--- a/biology/Zoologie/Geodia_eosaster/Geodia_eosaster.xlsx
+++ b/biology/Zoologie/Geodia_eosaster/Geodia_eosaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geodia eosaster est une espèce d'éponges de la famille des Geodiidae, présente dans la mer de Tasman[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geodia eosaster est une espèce d'éponges de la famille des Geodiidae, présente dans la mer de Tasman.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite par William Johnson Sollas en 1888 sous le nom de Cydonium eosaster[2].
-La localité type se situe près de Port Jackson, le port naturel de Sydney en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite par William Johnson Sollas en 1888 sous le nom de Cydonium eosaster.
+La localité type se situe près de Port Jackson, le port naturel de Sydney en Australie.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Description de Cydonium eosaster (Geodia eosaster) par Sollas en 1888.
